--- a/data/trans_dic/P1435-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1435-Dificultad-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.01445680805181614</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05533257575097283</v>
+        <v>0.05533257575097282</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06689721599450807</v>
+        <v>0.06650510601348131</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02658514193751269</v>
+        <v>0.02645261296960698</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008883418487140792</v>
+        <v>0.008544002796121879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04026697123064108</v>
+        <v>0.03973718557405038</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1024034095900194</v>
+        <v>0.1021438867068648</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05013698872660124</v>
+        <v>0.04930955241258838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02262744296483537</v>
+        <v>0.0221218753136641</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07753703552751426</v>
+        <v>0.07628775782276979</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04847619183924472</v>
+        <v>0.04912300320559814</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03060806195364959</v>
+        <v>0.03091656059953624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01329617216359936</v>
+        <v>0.01322455133279886</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03288434526265771</v>
+        <v>0.03225398447346804</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07742895757376164</v>
+        <v>0.07845936337556576</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0555647276616518</v>
+        <v>0.05508164370749002</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03032592873089279</v>
+        <v>0.0308864144502926</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05562518791875744</v>
+        <v>0.05646333778942202</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.02093101231545849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05343779002220811</v>
+        <v>0.0534377900222081</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05458347225314923</v>
+        <v>0.05382253539467062</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02538640529020641</v>
+        <v>0.02489579042736399</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01221757347898116</v>
+        <v>0.01229284723752325</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04056855541704813</v>
+        <v>0.04042085612418229</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08569086069157821</v>
+        <v>0.0838038688258106</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0512376948219596</v>
+        <v>0.05055120503599957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0338820741155738</v>
+        <v>0.03306412855064192</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06955840692643535</v>
+        <v>0.07065308051690604</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09926567636225916</v>
+        <v>0.0976768749944035</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02212490672286008</v>
+        <v>0.02199610678150823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01225875836576143</v>
+        <v>0.01177099885850452</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07819025195792094</v>
+        <v>0.0793455069822759</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1669953816354609</v>
+        <v>0.1701115886932285</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06163297649204554</v>
+        <v>0.06127049750986925</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04026624014342286</v>
+        <v>0.03991319429326715</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1200627933861878</v>
+        <v>0.1210492033544234</v>
       </c>
     </row>
     <row r="16">
@@ -857,7 +857,7 @@
         <v>0.0188238969688476</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06143723310105373</v>
+        <v>0.06143723310105372</v>
       </c>
     </row>
     <row r="17">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06697470652821201</v>
+        <v>0.0680111343820767</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03202182400198782</v>
+        <v>0.03233330186638689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01426230318080647</v>
+        <v>0.01452758567122194</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05347536824213978</v>
+        <v>0.05412745429565006</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08574722139232392</v>
+        <v>0.08605923994478339</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04499816363595163</v>
+        <v>0.0449549787202984</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02337820876493153</v>
+        <v>0.02348522230965169</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07033637512829147</v>
+        <v>0.06965237760064405</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>61702</v>
+        <v>61340</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29740</v>
+        <v>29591</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11189</v>
+        <v>10762</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>25079</v>
+        <v>24749</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>94450</v>
+        <v>94211</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>56086</v>
+        <v>55160</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28501</v>
+        <v>27864</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>48292</v>
+        <v>47513</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51265</v>
+        <v>51949</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>33434</v>
+        <v>33771</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13382</v>
+        <v>13310</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36513</v>
+        <v>35813</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>81884</v>
+        <v>82974</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>60695</v>
+        <v>60167</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30522</v>
+        <v>31086</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>61764</v>
+        <v>62694</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>54253</v>
+        <v>53496</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22233</v>
+        <v>21804</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9420</v>
+        <v>9479</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>42441</v>
+        <v>42287</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>85172</v>
+        <v>83296</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>44874</v>
+        <v>44273</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26125</v>
+        <v>25494</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>72769</v>
+        <v>73915</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>33865</v>
+        <v>33323</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10017</v>
+        <v>9958</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6003</v>
+        <v>5764</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>70855</v>
+        <v>71902</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56972</v>
+        <v>58035</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27903</v>
+        <v>27739</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19718</v>
+        <v>19545</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>108799</v>
+        <v>109693</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>222019</v>
+        <v>225455</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>113342</v>
+        <v>114444</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>50300</v>
+        <v>51236</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>197085</v>
+        <v>199488</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>284249</v>
+        <v>285284</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>159271</v>
+        <v>159119</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>82450</v>
+        <v>82827</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>259226</v>
+        <v>256705</v>
       </c>
     </row>
     <row r="24">
